--- a/data_processed/20250722/BTCUSDVOLSURFACE_REGULARIZED_20250722.xlsx
+++ b/data_processed/20250722/BTCUSDVOLSURFACE_REGULARIZED_20250722.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -9483,7 +9483,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16204,7 +16204,7 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16291,7 +16291,7 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -16320,7 +16320,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16523,7 +16523,7 @@
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16552,7 +16552,7 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16610,7 +16610,7 @@
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -28159,7 +28159,7 @@
       </c>
       <c r="G1054" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -28188,7 +28188,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -43800,7 +43800,7 @@
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44582,7 +44582,7 @@
       </c>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45251,7 +45251,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45396,7 +45396,7 @@
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -45425,7 +45425,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45707,7 +45707,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -47362,7 +47362,7 @@
       </c>
       <c r="G1809" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48359,7 +48359,7 @@
       </c>
       <c r="G1846" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48417,7 +48417,7 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48446,7 +48446,7 @@
       </c>
       <c r="G1849" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250722/BTCUSDVOLSURFACE_REGULARIZED_20250722.xlsx
+++ b/data_processed/20250722/BTCUSDVOLSURFACE_REGULARIZED_20250722.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8932,7 +8932,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9483,7 +9483,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -9976,7 +9976,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -16175,7 +16175,7 @@
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -16204,7 +16204,7 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -16262,7 +16262,7 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -16291,7 +16291,7 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -16320,7 +16320,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -16523,7 +16523,7 @@
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -16552,7 +16552,7 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -16610,7 +16610,7 @@
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -28159,7 +28159,7 @@
       </c>
       <c r="G1054" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -28188,7 +28188,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -42798,7 +42798,7 @@
       </c>
       <c r="G1637" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42827,7 +42827,7 @@
       </c>
       <c r="G1638" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -43485,7 +43485,7 @@
       </c>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43568,7 +43568,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43626,7 +43626,7 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43713,7 +43713,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43800,7 +43800,7 @@
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -43829,7 +43829,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -44466,7 +44466,7 @@
       </c>
       <c r="G1701" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44495,7 +44495,7 @@
       </c>
       <c r="G1702" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44582,7 +44582,7 @@
       </c>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -44640,7 +44640,7 @@
       </c>
       <c r="G1707" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44885,7 +44885,7 @@
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -45251,7 +45251,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -45396,7 +45396,7 @@
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -45425,7 +45425,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -45599,7 +45599,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45707,7 +45707,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -46697,7 +46697,7 @@
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46784,7 +46784,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47362,7 +47362,7 @@
       </c>
       <c r="G1809" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -47594,7 +47594,7 @@
       </c>
       <c r="G1817" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47677,7 +47677,7 @@
       </c>
       <c r="G1820" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -48359,7 +48359,7 @@
       </c>
       <c r="G1846" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -48388,7 +48388,7 @@
       </c>
       <c r="G1847" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48417,7 +48417,7 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -48446,7 +48446,7 @@
       </c>
       <c r="G1849" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -48533,7 +48533,7 @@
       </c>
       <c r="G1852" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48620,7 +48620,7 @@
       </c>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48649,7 +48649,7 @@
       </c>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48703,7 +48703,7 @@
       </c>
       <c r="G1858" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -51968,7 +51968,7 @@
       </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -55229,7 +55229,7 @@
       </c>
       <c r="G2116" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -55258,7 +55258,7 @@
       </c>
       <c r="G2117" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
